--- a/Sampling/March-2019-Sampling.xlsx
+++ b/Sampling/March-2019-Sampling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggieschedl/Desktop/URI/Prada/eDNA/Narragansett_Bay_eDNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggieschedl/Desktop/URI/Prada/eDNA/Narragansett_Bay_eDNA/Sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE51DA3E-8F05-744A-A820-2667D6356659}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CE0A0B-DCF2-054E-9691-0EAE6BF8EDC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16720" xr2:uid="{61E40AC4-5746-E049-B150-68F2248A5BF8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>Sample Name</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 71°14'33.06"W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41°35'32.85"N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71°16'58.40"W</t>
   </si>
 </sst>
 </file>
@@ -667,7 +673,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="E46" sqref="E46:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1862,6 +1868,12 @@
       <c r="C46" t="s">
         <v>66</v>
       </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
       <c r="F46" s="2">
         <v>43547</v>
       </c>
@@ -1882,6 +1894,12 @@
       <c r="C47" t="s">
         <v>66</v>
       </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
       <c r="F47" s="2">
         <v>43547</v>
       </c>
@@ -1902,6 +1920,12 @@
       <c r="C48" t="s">
         <v>66</v>
       </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
       <c r="F48" s="2">
         <v>43547</v>
       </c>
@@ -1921,6 +1945,12 @@
       </c>
       <c r="C49" t="s">
         <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
       </c>
       <c r="F49" s="2">
         <v>43547</v>
